--- a/Interview_Questions.xlsx
+++ b/Interview_Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Angular" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>arguments object</t>
   </si>
   <si>
-    <t>Javascript this binding</t>
-  </si>
-  <si>
     <t>What are new features of HTML5</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>HTML5 new features</t>
+  </si>
+  <si>
+    <t>Javascript this bindings</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -845,7 +847,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -877,37 +879,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -935,37 +937,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -994,22 +996,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Interview_Questions.xlsx
+++ b/Interview_Questions.xlsx
@@ -156,9 +156,6 @@
     <t>If I don't keep arguments in function then how can I access them</t>
   </si>
   <si>
-    <t>arguments object</t>
-  </si>
-  <si>
     <t>What are new features of HTML5</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>Javascript this bindings</t>
+  </si>
+  <si>
+    <t>arguments object of Javascript</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +657,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,12 +842,12 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -879,37 +879,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -937,37 +937,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -996,22 +996,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
